--- a/Lineas Bases/Smart-Vet/LB - Planificación/SGCV-CP.xlsx
+++ b/Lineas Bases/Smart-Vet/LB - Planificación/SGCV-CP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31c9eefc8fd81fa1/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31c9eefc8fd81fa1/Documentos/GitHub/GodsOfIT/Lineas Bases/Smart-Vet/LB - Planificación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{EDCD98E7-3D91-486C-B645-ADCE26B1A10E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FA89E12B-78CB-4C7A-9920-C2E7A05A7FDB}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{EDCD98E7-3D91-486C-B645-ADCE26B1A10E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B8673A2B-0554-43E8-82FA-2ED0A9AB03CE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Proyecto: Smart-Vet</t>
   </si>
@@ -135,6 +135,16 @@
   </si>
   <si>
     <t>Ruben Avila-Líder QA</t>
+  </si>
+  <si>
+    <t>Ruben Avila-Líder QA
+David Tamariz-UX Designer
+Manuel Aponte-Desarrollador</t>
+  </si>
+  <si>
+    <t>Victor Cabrejos-Analista Funcional
+David Tamariz-UX Designer
+Manuel Aponte-Desarrollador</t>
   </si>
 </sst>
 </file>
@@ -597,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -811,7 +821,9 @@
       <c r="D15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="F15" s="8">
         <v>1</v>
       </c>
@@ -826,7 +838,9 @@
       <c r="D16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="F16" s="7">
         <v>1</v>
       </c>
@@ -841,7 +855,9 @@
       <c r="D17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="F17" s="8">
         <v>1</v>
       </c>
@@ -869,12 +885,14 @@
       <c r="D19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="F19" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1">
+    <row r="20" spans="2:6" ht="41.4">
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -884,7 +902,9 @@
       <c r="D20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F20" s="7">
         <v>1</v>
       </c>
@@ -899,7 +919,9 @@
       <c r="D21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="F21" s="8">
         <v>1</v>
       </c>
@@ -917,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1">
+    <row r="23" spans="2:6" ht="41.4">
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
@@ -927,7 +949,9 @@
       <c r="D23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="F23" s="8">
         <v>1</v>
       </c>
@@ -942,9 +966,11 @@
       <c r="D24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="F24" s="7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1">
@@ -957,9 +983,11 @@
       <c r="D25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="8">
-        <v>1</v>
+      <c r="E25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.3</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1">
